--- a/Arquivos/logos.xlsx
+++ b/Arquivos/logos.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U354576\Documents\000001 Pós-graduação PUC desenvolvedor Full Stack\Sprint 01. Projeto MVP\Arquivos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pablo\Documents\01. Pós-Graduação\01. MVP Sprints\Sprint 01 - MVP\Arquivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5446AD05-353F-4C8A-852D-0D287300BFEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{D57D605D-0A7F-4CA1-9C4B-B1ABF82032CC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -113,7 +112,7 @@
         <xdr:cNvPr id="8" name="Retângulo 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC41B3FB-BBDE-49D9-8A50-4FCBC9127CE4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BC41B3FB-BBDE-49D9-8A50-4FCBC9127CE4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -176,7 +175,7 @@
         <xdr:cNvPr id="3" name="Imagem 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5B698EF-2A32-BA99-CE84-D0FE37C77E4B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E5B698EF-2A32-BA99-CE84-D0FE37C77E4B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -233,7 +232,7 @@
         <xdr:cNvPr id="5" name="Imagem 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D24C394A-C75C-5802-F3FA-D4F9323895E8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D24C394A-C75C-5802-F3FA-D4F9323895E8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -307,7 +306,7 @@
         <xdr:cNvPr id="7" name="Imagem 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{497FE899-7E41-4D5A-0064-460F41C5C824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{497FE899-7E41-4D5A-0064-460F41C5C824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -410,7 +409,7 @@
         <xdr:cNvPr id="2" name="Retângulo 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C52B2488-76E1-4AB2-BFDE-7BD40E61F5CC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C52B2488-76E1-4AB2-BFDE-7BD40E61F5CC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -473,7 +472,7 @@
         <xdr:cNvPr id="5" name="Imagem 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9AAB209-0FA4-51BA-AD5A-8D784F3B1E78}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B9AAB209-0FA4-51BA-AD5A-8D784F3B1E78}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -536,7 +535,7 @@
         <xdr:cNvPr id="7" name="Imagem 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CF0BD2D-0DBC-0EA6-512B-4A92CADB3879}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0CF0BD2D-0DBC-0EA6-512B-4A92CADB3879}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -601,7 +600,7 @@
         <xdr:cNvPr id="9" name="Imagem 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{272B54E4-E722-8C32-D937-C5C207879E1B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{272B54E4-E722-8C32-D937-C5C207879E1B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -666,7 +665,7 @@
         <xdr:cNvPr id="11" name="Imagem 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1D78A63-0B49-B361-D924-FC180B386047}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B1D78A63-0B49-B361-D924-FC180B386047}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -735,7 +734,7 @@
         <xdr:cNvPr id="3" name="Imagem 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99F2E90C-AEC1-6615-D7A2-E9DBCE063628}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{99F2E90C-AEC1-6615-D7A2-E9DBCE063628}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -784,7 +783,7 @@
         <xdr:cNvPr id="5" name="Imagem 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14B05DC6-D245-B64E-4D2A-98B97B599AB9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{14B05DC6-D245-B64E-4D2A-98B97B599AB9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1115,7 +1114,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC1AF983-11BF-4EE6-932F-63BCFAA149AE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -1134,7 +1133,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDEDE106-4C52-4B26-9B0F-1E1263224766}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A60" zoomScaleNormal="100" workbookViewId="0">
@@ -1153,10 +1152,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2821E3EF-DB86-4FB1-B5C7-BBC879385F78}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
